--- a/j+m.xlsx
+++ b/j+m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C7C578-2270-4E6A-B460-3C37E5A8C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096B3FAE-7E2A-4979-9C4E-ABFCA46038FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="29550" yWindow="-3480" windowWidth="21600" windowHeight="11175" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,9 +476,14 @@
       <c r="A2">
         <v>2023</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>50000</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <f>0.1*B2</f>
+        <v>5000</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -495,7 +500,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>20000</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -508,7 +515,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>20000</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -521,7 +530,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>20000</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,7 +909,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
